--- a/data/von-bertalanffy-literature.xlsx
+++ b/data/von-bertalanffy-literature.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwicquart\Downloads\Croissance 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwicquart\Desktop\Recherche\Projets\2019-05-20 - Growth parameters of coral reef fishes\fish_growth\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="250">
   <si>
     <t>Family</t>
   </si>
@@ -557,6 +557,219 @@
   </si>
   <si>
     <t>Scarus rubroviolaceus</t>
+  </si>
+  <si>
+    <t>Reference_type</t>
+  </si>
+  <si>
+    <t>Article</t>
+  </si>
+  <si>
+    <t>Isabel Province, Solomon Islands</t>
+  </si>
+  <si>
+    <t>Taylor et al, 2018</t>
+  </si>
+  <si>
+    <t>Gust et al, 2002</t>
+  </si>
+  <si>
+    <t>Northern Great Barrier Reef</t>
+  </si>
+  <si>
+    <t>Berumen et al, 2005</t>
+  </si>
+  <si>
+    <t>Chaetodontidae</t>
+  </si>
+  <si>
+    <t>Chaetodon</t>
+  </si>
+  <si>
+    <t>Chaetodon baronessa</t>
+  </si>
+  <si>
+    <t>Chaetodon citrinellus</t>
+  </si>
+  <si>
+    <t>Chaetodon lunulatus</t>
+  </si>
+  <si>
+    <t>Chaetodon trifascialis</t>
+  </si>
+  <si>
+    <t>Lizard Island</t>
+  </si>
+  <si>
+    <t>Sudekum et al, 1991</t>
+  </si>
+  <si>
+    <t>Carangidae</t>
+  </si>
+  <si>
+    <t>Caranx</t>
+  </si>
+  <si>
+    <t>Caranx melampygus</t>
+  </si>
+  <si>
+    <t>Caranx ignobilis</t>
+  </si>
+  <si>
+    <t>Report</t>
+  </si>
+  <si>
+    <t>Mapleston et al, 2009</t>
+  </si>
+  <si>
+    <t>Epinephelus ongus</t>
+  </si>
+  <si>
+    <t>Epinephelus fasciatus</t>
+  </si>
+  <si>
+    <t>Epinephelus quoyanus</t>
+  </si>
+  <si>
+    <t>Epinephelus maculatus</t>
+  </si>
+  <si>
+    <t>Epinephelus cyanopodus</t>
+  </si>
+  <si>
+    <t>Cephalopholis miniata</t>
+  </si>
+  <si>
+    <t>Cephalopholis boenak</t>
+  </si>
+  <si>
+    <t>Cephalopholis microprion</t>
+  </si>
+  <si>
+    <t>Cephalopholis cyanostigma</t>
+  </si>
+  <si>
+    <t>Currey et al, 2010</t>
+  </si>
+  <si>
+    <t>Fidler et al, 2018</t>
+  </si>
+  <si>
+    <t>Bani, Philippines</t>
+  </si>
+  <si>
+    <t>Acanthurus nigrofuscus</t>
+  </si>
+  <si>
+    <t>Parupeneus multifasciatus</t>
+  </si>
+  <si>
+    <t>San Salvador, Philippines</t>
+  </si>
+  <si>
+    <t>Taklobo Farm, Philippines</t>
+  </si>
+  <si>
+    <t>Fry et al, 2006</t>
+  </si>
+  <si>
+    <t>Holloway et al, 2015</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Hubble, 2003</t>
+  </si>
+  <si>
+    <t>PhD Thesis</t>
+  </si>
+  <si>
+    <t>Type of reference used (Article, Report, PhD Thesis)</t>
+  </si>
+  <si>
+    <t>Palm Islands, Great Barrier Reef</t>
+  </si>
+  <si>
+    <t>Labridae</t>
+  </si>
+  <si>
+    <t>Epibulus</t>
+  </si>
+  <si>
+    <t>Epibulus insidiator</t>
+  </si>
+  <si>
+    <t>Mehanna et al, 2017</t>
+  </si>
+  <si>
+    <t>Egypt, Red Sea</t>
+  </si>
+  <si>
+    <t>Ochavillo et al, 2011</t>
+  </si>
+  <si>
+    <t>Tutuila Island, American Samoa</t>
+  </si>
+  <si>
+    <t>Page, 1998</t>
+  </si>
+  <si>
+    <t>Chlorurus gibbus</t>
+  </si>
+  <si>
+    <t>Pears, 2005</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Ralston and Williams, 1988</t>
+  </si>
+  <si>
+    <t>Lethrinus rubrioperculatus</t>
+  </si>
+  <si>
+    <t>Lethrinus</t>
+  </si>
+  <si>
+    <t>Lethriidae</t>
+  </si>
+  <si>
+    <t>Pago Pago, American Samoa</t>
+  </si>
+  <si>
+    <t>Guam and Ponhpei, Micronesia</t>
+  </si>
+  <si>
+    <t>Taylor and Choat, 2014</t>
+  </si>
+  <si>
+    <t>Calotomus carolinus</t>
+  </si>
+  <si>
+    <t>Cetoscarus bicolour</t>
+  </si>
+  <si>
+    <t>Chlorurus frontalis</t>
+  </si>
+  <si>
+    <t>Chlorurus microrhinos</t>
+  </si>
+  <si>
+    <t>Scarus altipinnis</t>
+  </si>
+  <si>
+    <t>Scarus forsteni</t>
+  </si>
+  <si>
+    <t>Scarus ghobban</t>
+  </si>
+  <si>
+    <t>Calotomus</t>
   </si>
 </sst>
 </file>
@@ -1364,23 +1577,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N94"/>
+  <dimension ref="A1:O172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F88" sqref="F88"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
     <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="33.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1423,8 +1637,11 @@
       <c r="N1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1467,8 +1684,11 @@
       <c r="N2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1511,8 +1731,11 @@
       <c r="N3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1555,8 +1778,11 @@
       <c r="N4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -1599,8 +1825,11 @@
       <c r="N5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1643,8 +1872,11 @@
       <c r="N6" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1687,8 +1919,11 @@
       <c r="N7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1731,8 +1966,11 @@
       <c r="N8" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1775,8 +2013,11 @@
       <c r="N9" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1819,8 +2060,11 @@
       <c r="N10" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1863,8 +2107,11 @@
       <c r="N11" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1907,8 +2154,11 @@
       <c r="N12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1951,8 +2201,11 @@
       <c r="N13" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1995,8 +2248,11 @@
       <c r="N14" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -2039,8 +2295,11 @@
       <c r="N15" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -2083,8 +2342,11 @@
       <c r="N16" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -2127,8 +2389,11 @@
       <c r="N17" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -2171,8 +2436,11 @@
       <c r="N18" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -2215,8 +2483,11 @@
       <c r="N19" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -2259,8 +2530,11 @@
       <c r="N20" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -2303,8 +2577,11 @@
       <c r="N21" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -2347,8 +2624,11 @@
       <c r="N22" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -2391,8 +2671,11 @@
       <c r="N23" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -2435,8 +2718,11 @@
       <c r="N24" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O24" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>69</v>
       </c>
@@ -2476,8 +2762,11 @@
       <c r="N25" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O25" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>44</v>
       </c>
@@ -2520,8 +2809,11 @@
       <c r="N26" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -2558,8 +2850,11 @@
       <c r="N27" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O27" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>44</v>
       </c>
@@ -2596,8 +2891,11 @@
       <c r="N28" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O28" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -2637,8 +2935,11 @@
       <c r="N29" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O29" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -2678,8 +2979,11 @@
       <c r="N30" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O30" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -2719,8 +3023,11 @@
       <c r="N31" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O31" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -2760,8 +3067,11 @@
       <c r="N32" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O32" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -2801,8 +3111,11 @@
       <c r="N33" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O33" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -2842,8 +3155,11 @@
       <c r="N34" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O34" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -2886,8 +3202,11 @@
       <c r="N35" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O35" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -2930,8 +3249,11 @@
       <c r="N36" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O36" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -2974,8 +3296,11 @@
       <c r="N37" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O37" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -3018,8 +3343,11 @@
       <c r="N38" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O38" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -3059,8 +3387,11 @@
       <c r="N39" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O39" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -3100,8 +3431,11 @@
       <c r="N40" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O40" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -3141,8 +3475,11 @@
       <c r="N41" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O41" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -3182,8 +3519,11 @@
       <c r="N42" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O42" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -3223,8 +3563,11 @@
       <c r="N43" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O43" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -3261,8 +3604,11 @@
       <c r="N44" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O44" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -3299,8 +3645,11 @@
       <c r="N45" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O45" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -3337,8 +3686,11 @@
       <c r="N46" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O46" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -3375,8 +3727,11 @@
       <c r="N47" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O47" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -3413,8 +3768,11 @@
       <c r="N48" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O48" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -3451,8 +3809,11 @@
       <c r="N49" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O49" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -3489,8 +3850,11 @@
       <c r="N50" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O50" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -3527,8 +3891,11 @@
       <c r="N51" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O51" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -3565,8 +3932,11 @@
       <c r="N52" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O52" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -3603,8 +3973,11 @@
       <c r="N53" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O53" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -3641,8 +4014,11 @@
       <c r="N54" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O54" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -3679,8 +4055,11 @@
       <c r="N55" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O55" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -3717,8 +4096,11 @@
       <c r="N56" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O56" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -3755,8 +4137,11 @@
       <c r="N57" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O57" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -3793,8 +4178,11 @@
       <c r="N58" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O58" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -3831,8 +4219,11 @@
       <c r="N59" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O59" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -3869,8 +4260,11 @@
       <c r="N60" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O60" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>125</v>
       </c>
@@ -3907,8 +4301,11 @@
       <c r="N61" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O61" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>125</v>
       </c>
@@ -3945,8 +4342,11 @@
       <c r="N62" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O62" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>125</v>
       </c>
@@ -3983,8 +4383,11 @@
       <c r="N63" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O63" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>125</v>
       </c>
@@ -4021,8 +4424,11 @@
       <c r="N64" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O64" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>125</v>
       </c>
@@ -4059,8 +4465,11 @@
       <c r="N65" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O65" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>125</v>
       </c>
@@ -4097,8 +4506,11 @@
       <c r="N66" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O66" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>125</v>
       </c>
@@ -4135,8 +4547,11 @@
       <c r="N67" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O67" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>125</v>
       </c>
@@ -4173,8 +4588,11 @@
       <c r="N68" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O68" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>125</v>
       </c>
@@ -4211,8 +4629,11 @@
       <c r="N69" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O69" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>125</v>
       </c>
@@ -4249,8 +4670,11 @@
       <c r="N70" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O70" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>125</v>
       </c>
@@ -4287,8 +4711,11 @@
       <c r="N71" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O71" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>125</v>
       </c>
@@ -4325,8 +4752,11 @@
       <c r="N72" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O72" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>125</v>
       </c>
@@ -4363,8 +4793,11 @@
       <c r="N73" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O73" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>125</v>
       </c>
@@ -4401,8 +4834,11 @@
       <c r="N74" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O74" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>125</v>
       </c>
@@ -4439,8 +4875,11 @@
       <c r="N75" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O75" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>44</v>
       </c>
@@ -4483,8 +4922,11 @@
       <c r="N76" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O76" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>44</v>
       </c>
@@ -4527,8 +4969,11 @@
       <c r="N77" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O77" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>44</v>
       </c>
@@ -4571,8 +5016,11 @@
       <c r="N78" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O78" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>19</v>
       </c>
@@ -4606,8 +5054,11 @@
       <c r="N79" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O79" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>160</v>
       </c>
@@ -4648,10 +5099,13 @@
         <v>161</v>
       </c>
       <c r="N80" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+      <c r="O80" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>160</v>
       </c>
@@ -4692,10 +5146,13 @@
         <v>161</v>
       </c>
       <c r="N81" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+      <c r="O81" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>160</v>
       </c>
@@ -4736,10 +5193,13 @@
         <v>161</v>
       </c>
       <c r="N82" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+      <c r="O82" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>8</v>
       </c>
@@ -4782,8 +5242,11 @@
       <c r="N83" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O83" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>170</v>
       </c>
@@ -4820,8 +5283,11 @@
       <c r="N84" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O84" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>170</v>
       </c>
@@ -4858,8 +5324,11 @@
       <c r="N85" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O85" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>170</v>
       </c>
@@ -4896,8 +5365,11 @@
       <c r="N86" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O86" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>170</v>
       </c>
@@ -4934,8 +5406,11 @@
       <c r="N87" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O87" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>170</v>
       </c>
@@ -4972,8 +5447,11 @@
       <c r="N88" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O88" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>170</v>
       </c>
@@ -5010,8 +5488,11 @@
       <c r="N89" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O89" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>170</v>
       </c>
@@ -5048,8 +5529,11 @@
       <c r="N90" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O90" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>125</v>
       </c>
@@ -5089,8 +5573,11 @@
       <c r="N91" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O91" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>125</v>
       </c>
@@ -5130,8 +5617,11 @@
       <c r="N92" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O92" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>125</v>
       </c>
@@ -5171,8 +5661,11 @@
       <c r="N93" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O93" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>125</v>
       </c>
@@ -5211,6 +5704,3384 @@
       </c>
       <c r="N94" t="s">
         <v>174</v>
+      </c>
+      <c r="O94" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>125</v>
+      </c>
+      <c r="B95" t="s">
+        <v>126</v>
+      </c>
+      <c r="C95" t="s">
+        <v>127</v>
+      </c>
+      <c r="D95">
+        <v>1047</v>
+      </c>
+      <c r="E95">
+        <v>0.15</v>
+      </c>
+      <c r="F95">
+        <v>-0.10199999999999999</v>
+      </c>
+      <c r="G95">
+        <v>177</v>
+      </c>
+      <c r="H95">
+        <v>26</v>
+      </c>
+      <c r="I95">
+        <v>1160</v>
+      </c>
+      <c r="J95" t="s">
+        <v>16</v>
+      </c>
+      <c r="K95" t="s">
+        <v>45</v>
+      </c>
+      <c r="L95" t="s">
+        <v>94</v>
+      </c>
+      <c r="M95" t="s">
+        <v>181</v>
+      </c>
+      <c r="N95" t="s">
+        <v>182</v>
+      </c>
+      <c r="O95" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>125</v>
+      </c>
+      <c r="B96" t="s">
+        <v>126</v>
+      </c>
+      <c r="C96" t="s">
+        <v>127</v>
+      </c>
+      <c r="D96">
+        <v>1145</v>
+      </c>
+      <c r="E96">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="F96">
+        <v>-8.5000000000000006E-2</v>
+      </c>
+      <c r="G96">
+        <v>138</v>
+      </c>
+      <c r="H96">
+        <v>29</v>
+      </c>
+      <c r="I96">
+        <v>1190</v>
+      </c>
+      <c r="J96" t="s">
+        <v>16</v>
+      </c>
+      <c r="K96" t="s">
+        <v>45</v>
+      </c>
+      <c r="L96" t="s">
+        <v>93</v>
+      </c>
+      <c r="M96" t="s">
+        <v>181</v>
+      </c>
+      <c r="N96" t="s">
+        <v>182</v>
+      </c>
+      <c r="O96" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" t="s">
+        <v>108</v>
+      </c>
+      <c r="C97" t="s">
+        <v>114</v>
+      </c>
+      <c r="D97">
+        <v>189.09</v>
+      </c>
+      <c r="E97">
+        <v>0.68</v>
+      </c>
+      <c r="G97">
+        <v>50</v>
+      </c>
+      <c r="H97">
+        <v>42</v>
+      </c>
+      <c r="J97" t="s">
+        <v>16</v>
+      </c>
+      <c r="K97" t="s">
+        <v>147</v>
+      </c>
+      <c r="L97" t="s">
+        <v>90</v>
+      </c>
+      <c r="M97" t="s">
+        <v>184</v>
+      </c>
+      <c r="N97" t="s">
+        <v>183</v>
+      </c>
+      <c r="O97" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" t="s">
+        <v>108</v>
+      </c>
+      <c r="C98" t="s">
+        <v>114</v>
+      </c>
+      <c r="D98">
+        <v>174.84</v>
+      </c>
+      <c r="E98">
+        <v>0.34</v>
+      </c>
+      <c r="G98">
+        <v>45</v>
+      </c>
+      <c r="H98">
+        <v>25</v>
+      </c>
+      <c r="J98" t="s">
+        <v>16</v>
+      </c>
+      <c r="K98" t="s">
+        <v>147</v>
+      </c>
+      <c r="L98" t="s">
+        <v>90</v>
+      </c>
+      <c r="M98" t="s">
+        <v>184</v>
+      </c>
+      <c r="N98" t="s">
+        <v>183</v>
+      </c>
+      <c r="O98" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>125</v>
+      </c>
+      <c r="B99" t="s">
+        <v>130</v>
+      </c>
+      <c r="C99" t="s">
+        <v>132</v>
+      </c>
+      <c r="D99">
+        <v>192.61</v>
+      </c>
+      <c r="E99">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G99">
+        <v>68</v>
+      </c>
+      <c r="H99">
+        <v>9</v>
+      </c>
+      <c r="J99" t="s">
+        <v>16</v>
+      </c>
+      <c r="K99" t="s">
+        <v>147</v>
+      </c>
+      <c r="L99" t="s">
+        <v>90</v>
+      </c>
+      <c r="M99" t="s">
+        <v>184</v>
+      </c>
+      <c r="N99" t="s">
+        <v>183</v>
+      </c>
+      <c r="O99" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>125</v>
+      </c>
+      <c r="B100" t="s">
+        <v>130</v>
+      </c>
+      <c r="C100" t="s">
+        <v>132</v>
+      </c>
+      <c r="D100">
+        <v>158.21</v>
+      </c>
+      <c r="E100">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G100">
+        <v>108</v>
+      </c>
+      <c r="H100">
+        <v>9</v>
+      </c>
+      <c r="J100" t="s">
+        <v>16</v>
+      </c>
+      <c r="K100" t="s">
+        <v>147</v>
+      </c>
+      <c r="L100" t="s">
+        <v>90</v>
+      </c>
+      <c r="M100" t="s">
+        <v>184</v>
+      </c>
+      <c r="N100" t="s">
+        <v>183</v>
+      </c>
+      <c r="O100" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>125</v>
+      </c>
+      <c r="B101" t="s">
+        <v>135</v>
+      </c>
+      <c r="C101" t="s">
+        <v>136</v>
+      </c>
+      <c r="D101">
+        <v>255.43</v>
+      </c>
+      <c r="E101">
+        <v>0.77</v>
+      </c>
+      <c r="G101">
+        <v>66</v>
+      </c>
+      <c r="H101">
+        <v>20</v>
+      </c>
+      <c r="J101" t="s">
+        <v>16</v>
+      </c>
+      <c r="K101" t="s">
+        <v>147</v>
+      </c>
+      <c r="L101" t="s">
+        <v>90</v>
+      </c>
+      <c r="M101" t="s">
+        <v>184</v>
+      </c>
+      <c r="N101" t="s">
+        <v>183</v>
+      </c>
+      <c r="O101" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>125</v>
+      </c>
+      <c r="B102" t="s">
+        <v>135</v>
+      </c>
+      <c r="C102" t="s">
+        <v>136</v>
+      </c>
+      <c r="D102">
+        <v>195.92</v>
+      </c>
+      <c r="E102">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="G102">
+        <v>57</v>
+      </c>
+      <c r="H102">
+        <v>10</v>
+      </c>
+      <c r="J102" t="s">
+        <v>16</v>
+      </c>
+      <c r="K102" t="s">
+        <v>147</v>
+      </c>
+      <c r="L102" t="s">
+        <v>90</v>
+      </c>
+      <c r="M102" t="s">
+        <v>184</v>
+      </c>
+      <c r="N102" t="s">
+        <v>183</v>
+      </c>
+      <c r="O102" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>125</v>
+      </c>
+      <c r="B103" t="s">
+        <v>135</v>
+      </c>
+      <c r="C103" t="s">
+        <v>137</v>
+      </c>
+      <c r="D103">
+        <v>238.36</v>
+      </c>
+      <c r="E103">
+        <v>0.72</v>
+      </c>
+      <c r="G103">
+        <v>78</v>
+      </c>
+      <c r="H103">
+        <v>16</v>
+      </c>
+      <c r="J103" t="s">
+        <v>16</v>
+      </c>
+      <c r="K103" t="s">
+        <v>147</v>
+      </c>
+      <c r="L103" t="s">
+        <v>90</v>
+      </c>
+      <c r="M103" t="s">
+        <v>184</v>
+      </c>
+      <c r="N103" t="s">
+        <v>183</v>
+      </c>
+      <c r="O103" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>125</v>
+      </c>
+      <c r="B104" t="s">
+        <v>135</v>
+      </c>
+      <c r="C104" t="s">
+        <v>137</v>
+      </c>
+      <c r="D104">
+        <v>177.29</v>
+      </c>
+      <c r="E104">
+        <v>0.93</v>
+      </c>
+      <c r="G104">
+        <v>66</v>
+      </c>
+      <c r="H104">
+        <v>12</v>
+      </c>
+      <c r="J104" t="s">
+        <v>16</v>
+      </c>
+      <c r="K104" t="s">
+        <v>147</v>
+      </c>
+      <c r="L104" t="s">
+        <v>90</v>
+      </c>
+      <c r="M104" t="s">
+        <v>184</v>
+      </c>
+      <c r="N104" t="s">
+        <v>183</v>
+      </c>
+      <c r="O104" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>186</v>
+      </c>
+      <c r="B105" t="s">
+        <v>187</v>
+      </c>
+      <c r="C105" t="s">
+        <v>188</v>
+      </c>
+      <c r="D105">
+        <v>108.6</v>
+      </c>
+      <c r="E105">
+        <v>0.999</v>
+      </c>
+      <c r="F105">
+        <v>-9.1999999999999998E-2</v>
+      </c>
+      <c r="G105">
+        <v>36</v>
+      </c>
+      <c r="H105">
+        <v>12</v>
+      </c>
+      <c r="J105" t="s">
+        <v>16</v>
+      </c>
+      <c r="K105" t="s">
+        <v>45</v>
+      </c>
+      <c r="L105" t="s">
+        <v>90</v>
+      </c>
+      <c r="M105" t="s">
+        <v>192</v>
+      </c>
+      <c r="N105" t="s">
+        <v>185</v>
+      </c>
+      <c r="O105" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>186</v>
+      </c>
+      <c r="B106" t="s">
+        <v>187</v>
+      </c>
+      <c r="C106" t="s">
+        <v>189</v>
+      </c>
+      <c r="D106">
+        <v>90.7</v>
+      </c>
+      <c r="E106">
+        <v>2.15</v>
+      </c>
+      <c r="F106">
+        <v>-7.3999999999999996E-2</v>
+      </c>
+      <c r="G106">
+        <v>27</v>
+      </c>
+      <c r="H106">
+        <v>7</v>
+      </c>
+      <c r="J106" t="s">
+        <v>16</v>
+      </c>
+      <c r="K106" t="s">
+        <v>45</v>
+      </c>
+      <c r="L106" t="s">
+        <v>90</v>
+      </c>
+      <c r="M106" t="s">
+        <v>192</v>
+      </c>
+      <c r="N106" t="s">
+        <v>185</v>
+      </c>
+      <c r="O106" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>186</v>
+      </c>
+      <c r="B107" t="s">
+        <v>187</v>
+      </c>
+      <c r="C107" t="s">
+        <v>190</v>
+      </c>
+      <c r="D107">
+        <v>106.9</v>
+      </c>
+      <c r="E107">
+        <v>1.9410000000000001</v>
+      </c>
+      <c r="F107">
+        <v>-0.24099999999999999</v>
+      </c>
+      <c r="G107">
+        <v>41</v>
+      </c>
+      <c r="H107">
+        <v>12</v>
+      </c>
+      <c r="J107" t="s">
+        <v>16</v>
+      </c>
+      <c r="K107" t="s">
+        <v>45</v>
+      </c>
+      <c r="L107" t="s">
+        <v>90</v>
+      </c>
+      <c r="M107" t="s">
+        <v>192</v>
+      </c>
+      <c r="N107" t="s">
+        <v>185</v>
+      </c>
+      <c r="O107" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>186</v>
+      </c>
+      <c r="B108" t="s">
+        <v>187</v>
+      </c>
+      <c r="C108" t="s">
+        <v>191</v>
+      </c>
+      <c r="D108">
+        <v>111.3</v>
+      </c>
+      <c r="E108">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="F108">
+        <v>-0.46400000000000002</v>
+      </c>
+      <c r="G108">
+        <v>37</v>
+      </c>
+      <c r="H108">
+        <v>12</v>
+      </c>
+      <c r="J108" t="s">
+        <v>16</v>
+      </c>
+      <c r="K108" t="s">
+        <v>45</v>
+      </c>
+      <c r="L108" t="s">
+        <v>90</v>
+      </c>
+      <c r="M108" t="s">
+        <v>192</v>
+      </c>
+      <c r="N108" t="s">
+        <v>185</v>
+      </c>
+      <c r="O108" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>194</v>
+      </c>
+      <c r="B109" t="s">
+        <v>195</v>
+      </c>
+      <c r="C109" t="s">
+        <v>196</v>
+      </c>
+      <c r="D109">
+        <v>897</v>
+      </c>
+      <c r="E109">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="F109">
+        <v>-4.3999999999999997E-2</v>
+      </c>
+      <c r="G109">
+        <v>14</v>
+      </c>
+      <c r="H109">
+        <v>6</v>
+      </c>
+      <c r="I109">
+        <v>660</v>
+      </c>
+      <c r="J109" t="s">
+        <v>16</v>
+      </c>
+      <c r="K109" t="s">
+        <v>147</v>
+      </c>
+      <c r="L109" t="s">
+        <v>90</v>
+      </c>
+      <c r="M109" t="s">
+        <v>31</v>
+      </c>
+      <c r="N109" t="s">
+        <v>193</v>
+      </c>
+      <c r="O109" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>194</v>
+      </c>
+      <c r="B110" t="s">
+        <v>195</v>
+      </c>
+      <c r="C110" t="s">
+        <v>197</v>
+      </c>
+      <c r="D110">
+        <v>1838</v>
+      </c>
+      <c r="E110">
+        <v>0.111</v>
+      </c>
+      <c r="F110">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="G110">
+        <v>10</v>
+      </c>
+      <c r="H110">
+        <v>9</v>
+      </c>
+      <c r="I110">
+        <v>1180</v>
+      </c>
+      <c r="J110" t="s">
+        <v>16</v>
+      </c>
+      <c r="K110" t="s">
+        <v>147</v>
+      </c>
+      <c r="L110" t="s">
+        <v>90</v>
+      </c>
+      <c r="M110" t="s">
+        <v>31</v>
+      </c>
+      <c r="N110" t="s">
+        <v>193</v>
+      </c>
+      <c r="O110" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>44</v>
+      </c>
+      <c r="B111" t="s">
+        <v>43</v>
+      </c>
+      <c r="C111" t="s">
+        <v>82</v>
+      </c>
+      <c r="D111">
+        <v>846.93600000000004</v>
+      </c>
+      <c r="E111">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="F111">
+        <v>-3.7410000000000001</v>
+      </c>
+      <c r="G111">
+        <v>401</v>
+      </c>
+      <c r="H111">
+        <v>42</v>
+      </c>
+      <c r="I111">
+        <v>950</v>
+      </c>
+      <c r="J111" t="s">
+        <v>16</v>
+      </c>
+      <c r="K111" t="s">
+        <v>11</v>
+      </c>
+      <c r="L111" t="s">
+        <v>90</v>
+      </c>
+      <c r="M111" t="s">
+        <v>99</v>
+      </c>
+      <c r="N111" t="s">
+        <v>199</v>
+      </c>
+      <c r="O111" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>44</v>
+      </c>
+      <c r="B112" t="s">
+        <v>43</v>
+      </c>
+      <c r="C112" t="s">
+        <v>73</v>
+      </c>
+      <c r="D112">
+        <v>562.34500000000003</v>
+      </c>
+      <c r="E112">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="F112">
+        <v>-8.1000000000000003E-2</v>
+      </c>
+      <c r="G112">
+        <v>330</v>
+      </c>
+      <c r="H112">
+        <v>44</v>
+      </c>
+      <c r="I112">
+        <v>691</v>
+      </c>
+      <c r="J112" t="s">
+        <v>16</v>
+      </c>
+      <c r="K112" t="s">
+        <v>11</v>
+      </c>
+      <c r="L112" t="s">
+        <v>90</v>
+      </c>
+      <c r="M112" t="s">
+        <v>99</v>
+      </c>
+      <c r="N112" t="s">
+        <v>199</v>
+      </c>
+      <c r="O112" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>44</v>
+      </c>
+      <c r="B113" t="s">
+        <v>43</v>
+      </c>
+      <c r="C113" t="s">
+        <v>200</v>
+      </c>
+      <c r="D113">
+        <v>326.28399999999999</v>
+      </c>
+      <c r="E113">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="F113">
+        <v>-3.9060000000000001</v>
+      </c>
+      <c r="G113">
+        <v>843</v>
+      </c>
+      <c r="H113">
+        <v>30</v>
+      </c>
+      <c r="I113">
+        <v>460</v>
+      </c>
+      <c r="J113" t="s">
+        <v>16</v>
+      </c>
+      <c r="K113" t="s">
+        <v>11</v>
+      </c>
+      <c r="L113" t="s">
+        <v>90</v>
+      </c>
+      <c r="M113" t="s">
+        <v>99</v>
+      </c>
+      <c r="N113" t="s">
+        <v>199</v>
+      </c>
+      <c r="O113" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>44</v>
+      </c>
+      <c r="B114" t="s">
+        <v>43</v>
+      </c>
+      <c r="C114" t="s">
+        <v>201</v>
+      </c>
+      <c r="D114">
+        <v>281.81400000000002</v>
+      </c>
+      <c r="E114">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="F114">
+        <v>-0.68500000000000005</v>
+      </c>
+      <c r="G114">
+        <v>1047</v>
+      </c>
+      <c r="H114">
+        <v>21</v>
+      </c>
+      <c r="I114">
+        <v>440</v>
+      </c>
+      <c r="J114" t="s">
+        <v>16</v>
+      </c>
+      <c r="K114" t="s">
+        <v>11</v>
+      </c>
+      <c r="L114" t="s">
+        <v>90</v>
+      </c>
+      <c r="M114" t="s">
+        <v>99</v>
+      </c>
+      <c r="N114" t="s">
+        <v>199</v>
+      </c>
+      <c r="O114" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>44</v>
+      </c>
+      <c r="B115" t="s">
+        <v>43</v>
+      </c>
+      <c r="C115" t="s">
+        <v>202</v>
+      </c>
+      <c r="D115">
+        <v>326.59500000000003</v>
+      </c>
+      <c r="E115">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="F115">
+        <v>-0.74</v>
+      </c>
+      <c r="G115">
+        <v>214</v>
+      </c>
+      <c r="H115">
+        <v>14</v>
+      </c>
+      <c r="I115">
+        <v>390</v>
+      </c>
+      <c r="J115" t="s">
+        <v>16</v>
+      </c>
+      <c r="K115" t="s">
+        <v>11</v>
+      </c>
+      <c r="L115" t="s">
+        <v>90</v>
+      </c>
+      <c r="M115" t="s">
+        <v>99</v>
+      </c>
+      <c r="N115" t="s">
+        <v>199</v>
+      </c>
+      <c r="O115" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>44</v>
+      </c>
+      <c r="B116" t="s">
+        <v>43</v>
+      </c>
+      <c r="C116" t="s">
+        <v>203</v>
+      </c>
+      <c r="D116">
+        <v>638.68299999999999</v>
+      </c>
+      <c r="E116">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="F116">
+        <v>-5.5380000000000003</v>
+      </c>
+      <c r="G116">
+        <v>58</v>
+      </c>
+      <c r="H116">
+        <v>7</v>
+      </c>
+      <c r="I116">
+        <v>448</v>
+      </c>
+      <c r="J116" t="s">
+        <v>16</v>
+      </c>
+      <c r="K116" t="s">
+        <v>11</v>
+      </c>
+      <c r="L116" t="s">
+        <v>90</v>
+      </c>
+      <c r="M116" t="s">
+        <v>99</v>
+      </c>
+      <c r="N116" t="s">
+        <v>199</v>
+      </c>
+      <c r="O116" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>44</v>
+      </c>
+      <c r="B117" t="s">
+        <v>43</v>
+      </c>
+      <c r="C117" t="s">
+        <v>204</v>
+      </c>
+      <c r="D117">
+        <v>787.18600000000004</v>
+      </c>
+      <c r="E117">
+        <v>0.113</v>
+      </c>
+      <c r="F117">
+        <v>-3.629</v>
+      </c>
+      <c r="G117">
+        <v>45</v>
+      </c>
+      <c r="H117">
+        <v>4</v>
+      </c>
+      <c r="I117">
+        <v>548</v>
+      </c>
+      <c r="J117" t="s">
+        <v>16</v>
+      </c>
+      <c r="K117" t="s">
+        <v>11</v>
+      </c>
+      <c r="L117" t="s">
+        <v>90</v>
+      </c>
+      <c r="M117" t="s">
+        <v>99</v>
+      </c>
+      <c r="N117" t="s">
+        <v>199</v>
+      </c>
+      <c r="O117" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>44</v>
+      </c>
+      <c r="B118" t="s">
+        <v>76</v>
+      </c>
+      <c r="C118" t="s">
+        <v>98</v>
+      </c>
+      <c r="D118">
+        <v>485.49900000000002</v>
+      </c>
+      <c r="E118">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="F118">
+        <v>-14.145</v>
+      </c>
+      <c r="G118">
+        <v>232</v>
+      </c>
+      <c r="H118">
+        <v>39</v>
+      </c>
+      <c r="I118">
+        <v>485</v>
+      </c>
+      <c r="J118" t="s">
+        <v>16</v>
+      </c>
+      <c r="K118" t="s">
+        <v>11</v>
+      </c>
+      <c r="L118" t="s">
+        <v>90</v>
+      </c>
+      <c r="M118" t="s">
+        <v>99</v>
+      </c>
+      <c r="N118" t="s">
+        <v>199</v>
+      </c>
+      <c r="O118" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>44</v>
+      </c>
+      <c r="B119" t="s">
+        <v>76</v>
+      </c>
+      <c r="C119" t="s">
+        <v>205</v>
+      </c>
+      <c r="D119">
+        <v>420.03300000000002</v>
+      </c>
+      <c r="E119">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="F119">
+        <v>-2.0409999999999999</v>
+      </c>
+      <c r="G119">
+        <v>33</v>
+      </c>
+      <c r="H119">
+        <v>30</v>
+      </c>
+      <c r="I119">
+        <v>475</v>
+      </c>
+      <c r="J119" t="s">
+        <v>16</v>
+      </c>
+      <c r="K119" t="s">
+        <v>11</v>
+      </c>
+      <c r="L119" t="s">
+        <v>90</v>
+      </c>
+      <c r="M119" t="s">
+        <v>99</v>
+      </c>
+      <c r="N119" t="s">
+        <v>199</v>
+      </c>
+      <c r="O119" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>44</v>
+      </c>
+      <c r="B120" t="s">
+        <v>76</v>
+      </c>
+      <c r="C120" t="s">
+        <v>206</v>
+      </c>
+      <c r="D120">
+        <v>262.21600000000001</v>
+      </c>
+      <c r="E120">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="F120">
+        <v>-11.113</v>
+      </c>
+      <c r="G120">
+        <v>16</v>
+      </c>
+      <c r="H120">
+        <v>18</v>
+      </c>
+      <c r="I120">
+        <v>234</v>
+      </c>
+      <c r="J120" t="s">
+        <v>16</v>
+      </c>
+      <c r="K120" t="s">
+        <v>11</v>
+      </c>
+      <c r="L120" t="s">
+        <v>90</v>
+      </c>
+      <c r="M120" t="s">
+        <v>99</v>
+      </c>
+      <c r="N120" t="s">
+        <v>199</v>
+      </c>
+      <c r="O120" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>44</v>
+      </c>
+      <c r="B121" t="s">
+        <v>76</v>
+      </c>
+      <c r="C121" t="s">
+        <v>207</v>
+      </c>
+      <c r="D121">
+        <v>189.655</v>
+      </c>
+      <c r="E121">
+        <v>6.2E-2</v>
+      </c>
+      <c r="F121">
+        <v>-13.196</v>
+      </c>
+      <c r="G121">
+        <v>20</v>
+      </c>
+      <c r="I121">
+        <v>153</v>
+      </c>
+      <c r="J121" t="s">
+        <v>16</v>
+      </c>
+      <c r="K121" t="s">
+        <v>11</v>
+      </c>
+      <c r="L121" t="s">
+        <v>90</v>
+      </c>
+      <c r="M121" t="s">
+        <v>99</v>
+      </c>
+      <c r="N121" t="s">
+        <v>199</v>
+      </c>
+      <c r="O121" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>44</v>
+      </c>
+      <c r="B122" t="s">
+        <v>76</v>
+      </c>
+      <c r="C122" t="s">
+        <v>208</v>
+      </c>
+      <c r="D122">
+        <v>311.29399999999998</v>
+      </c>
+      <c r="E122">
+        <v>0.04</v>
+      </c>
+      <c r="F122">
+        <v>-27.006</v>
+      </c>
+      <c r="G122">
+        <v>2607</v>
+      </c>
+      <c r="H122">
+        <v>46</v>
+      </c>
+      <c r="I122">
+        <v>428</v>
+      </c>
+      <c r="J122" t="s">
+        <v>16</v>
+      </c>
+      <c r="K122" t="s">
+        <v>11</v>
+      </c>
+      <c r="L122" t="s">
+        <v>90</v>
+      </c>
+      <c r="M122" t="s">
+        <v>99</v>
+      </c>
+      <c r="N122" t="s">
+        <v>199</v>
+      </c>
+      <c r="O122" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>19</v>
+      </c>
+      <c r="B123" t="s">
+        <v>17</v>
+      </c>
+      <c r="C123" t="s">
+        <v>104</v>
+      </c>
+      <c r="D123">
+        <v>267</v>
+      </c>
+      <c r="E123">
+        <v>0.41</v>
+      </c>
+      <c r="H123">
+        <v>17</v>
+      </c>
+      <c r="J123" t="s">
+        <v>16</v>
+      </c>
+      <c r="K123" t="s">
+        <v>11</v>
+      </c>
+      <c r="L123" t="s">
+        <v>90</v>
+      </c>
+      <c r="M123" t="s">
+        <v>99</v>
+      </c>
+      <c r="N123" t="s">
+        <v>209</v>
+      </c>
+      <c r="O123" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>19</v>
+      </c>
+      <c r="B124" t="s">
+        <v>17</v>
+      </c>
+      <c r="C124" t="s">
+        <v>39</v>
+      </c>
+      <c r="D124">
+        <v>352</v>
+      </c>
+      <c r="E124">
+        <v>0.51</v>
+      </c>
+      <c r="H124">
+        <v>12</v>
+      </c>
+      <c r="J124" t="s">
+        <v>16</v>
+      </c>
+      <c r="K124" t="s">
+        <v>11</v>
+      </c>
+      <c r="L124" t="s">
+        <v>90</v>
+      </c>
+      <c r="M124" t="s">
+        <v>99</v>
+      </c>
+      <c r="N124" t="s">
+        <v>209</v>
+      </c>
+      <c r="O124" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>8</v>
+      </c>
+      <c r="B125" t="s">
+        <v>108</v>
+      </c>
+      <c r="C125" t="s">
+        <v>212</v>
+      </c>
+      <c r="D125">
+        <v>80</v>
+      </c>
+      <c r="E125">
+        <v>1.17</v>
+      </c>
+      <c r="F125">
+        <v>-0.05</v>
+      </c>
+      <c r="J125" t="s">
+        <v>16</v>
+      </c>
+      <c r="K125" t="s">
+        <v>147</v>
+      </c>
+      <c r="L125" t="s">
+        <v>90</v>
+      </c>
+      <c r="M125" t="s">
+        <v>211</v>
+      </c>
+      <c r="N125" t="s">
+        <v>210</v>
+      </c>
+      <c r="O125" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>8</v>
+      </c>
+      <c r="B126" t="s">
+        <v>108</v>
+      </c>
+      <c r="C126" t="s">
+        <v>212</v>
+      </c>
+      <c r="D126">
+        <v>78</v>
+      </c>
+      <c r="E126">
+        <v>0.89</v>
+      </c>
+      <c r="F126">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="J126" t="s">
+        <v>16</v>
+      </c>
+      <c r="K126" t="s">
+        <v>147</v>
+      </c>
+      <c r="L126" t="s">
+        <v>90</v>
+      </c>
+      <c r="M126" t="s">
+        <v>211</v>
+      </c>
+      <c r="N126" t="s">
+        <v>210</v>
+      </c>
+      <c r="O126" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>8</v>
+      </c>
+      <c r="B127" t="s">
+        <v>108</v>
+      </c>
+      <c r="C127" t="s">
+        <v>212</v>
+      </c>
+      <c r="D127">
+        <v>89</v>
+      </c>
+      <c r="E127">
+        <v>0.82</v>
+      </c>
+      <c r="F127">
+        <v>-0.18</v>
+      </c>
+      <c r="J127" t="s">
+        <v>16</v>
+      </c>
+      <c r="K127" t="s">
+        <v>147</v>
+      </c>
+      <c r="L127" t="s">
+        <v>90</v>
+      </c>
+      <c r="M127" t="s">
+        <v>214</v>
+      </c>
+      <c r="N127" t="s">
+        <v>210</v>
+      </c>
+      <c r="O127" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>8</v>
+      </c>
+      <c r="B128" t="s">
+        <v>108</v>
+      </c>
+      <c r="C128" t="s">
+        <v>212</v>
+      </c>
+      <c r="D128">
+        <v>78</v>
+      </c>
+      <c r="E128">
+        <v>0.89</v>
+      </c>
+      <c r="F128">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="J128" t="s">
+        <v>16</v>
+      </c>
+      <c r="K128" t="s">
+        <v>147</v>
+      </c>
+      <c r="L128" t="s">
+        <v>90</v>
+      </c>
+      <c r="M128" t="s">
+        <v>214</v>
+      </c>
+      <c r="N128" t="s">
+        <v>210</v>
+      </c>
+      <c r="O128" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>8</v>
+      </c>
+      <c r="B129" t="s">
+        <v>108</v>
+      </c>
+      <c r="C129" t="s">
+        <v>212</v>
+      </c>
+      <c r="D129">
+        <v>84</v>
+      </c>
+      <c r="E129">
+        <v>0.98</v>
+      </c>
+      <c r="F129">
+        <v>-0.11</v>
+      </c>
+      <c r="J129" t="s">
+        <v>16</v>
+      </c>
+      <c r="K129" t="s">
+        <v>147</v>
+      </c>
+      <c r="L129" t="s">
+        <v>90</v>
+      </c>
+      <c r="M129" t="s">
+        <v>215</v>
+      </c>
+      <c r="N129" t="s">
+        <v>210</v>
+      </c>
+      <c r="O129" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>8</v>
+      </c>
+      <c r="B130" t="s">
+        <v>108</v>
+      </c>
+      <c r="C130" t="s">
+        <v>212</v>
+      </c>
+      <c r="D130">
+        <v>78</v>
+      </c>
+      <c r="E130">
+        <v>0.89</v>
+      </c>
+      <c r="F130">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="J130" t="s">
+        <v>16</v>
+      </c>
+      <c r="K130" t="s">
+        <v>147</v>
+      </c>
+      <c r="L130" t="s">
+        <v>90</v>
+      </c>
+      <c r="M130" t="s">
+        <v>215</v>
+      </c>
+      <c r="N130" t="s">
+        <v>210</v>
+      </c>
+      <c r="O130" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>8</v>
+      </c>
+      <c r="B131" t="s">
+        <v>47</v>
+      </c>
+      <c r="C131" t="s">
+        <v>46</v>
+      </c>
+      <c r="D131">
+        <v>132</v>
+      </c>
+      <c r="E131">
+        <v>0.66</v>
+      </c>
+      <c r="F131">
+        <v>-0.16</v>
+      </c>
+      <c r="J131" t="s">
+        <v>16</v>
+      </c>
+      <c r="K131" t="s">
+        <v>147</v>
+      </c>
+      <c r="L131" t="s">
+        <v>90</v>
+      </c>
+      <c r="M131" t="s">
+        <v>211</v>
+      </c>
+      <c r="N131" t="s">
+        <v>210</v>
+      </c>
+      <c r="O131" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>8</v>
+      </c>
+      <c r="B132" t="s">
+        <v>47</v>
+      </c>
+      <c r="C132" t="s">
+        <v>46</v>
+      </c>
+      <c r="D132">
+        <v>119</v>
+      </c>
+      <c r="E132">
+        <v>0.72</v>
+      </c>
+      <c r="F132">
+        <v>-0.12</v>
+      </c>
+      <c r="J132" t="s">
+        <v>16</v>
+      </c>
+      <c r="K132" t="s">
+        <v>147</v>
+      </c>
+      <c r="L132" t="s">
+        <v>90</v>
+      </c>
+      <c r="M132" t="s">
+        <v>211</v>
+      </c>
+      <c r="N132" t="s">
+        <v>210</v>
+      </c>
+      <c r="O132" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>8</v>
+      </c>
+      <c r="B133" t="s">
+        <v>47</v>
+      </c>
+      <c r="C133" t="s">
+        <v>46</v>
+      </c>
+      <c r="D133">
+        <v>125</v>
+      </c>
+      <c r="E133">
+        <v>0.49</v>
+      </c>
+      <c r="F133">
+        <v>-0.36</v>
+      </c>
+      <c r="J133" t="s">
+        <v>16</v>
+      </c>
+      <c r="K133" t="s">
+        <v>147</v>
+      </c>
+      <c r="L133" t="s">
+        <v>90</v>
+      </c>
+      <c r="M133" t="s">
+        <v>214</v>
+      </c>
+      <c r="N133" t="s">
+        <v>210</v>
+      </c>
+      <c r="O133" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>8</v>
+      </c>
+      <c r="B134" t="s">
+        <v>47</v>
+      </c>
+      <c r="C134" t="s">
+        <v>46</v>
+      </c>
+      <c r="D134">
+        <v>119</v>
+      </c>
+      <c r="E134">
+        <v>0.72</v>
+      </c>
+      <c r="F134">
+        <v>-0.12</v>
+      </c>
+      <c r="J134" t="s">
+        <v>16</v>
+      </c>
+      <c r="K134" t="s">
+        <v>147</v>
+      </c>
+      <c r="L134" t="s">
+        <v>90</v>
+      </c>
+      <c r="M134" t="s">
+        <v>214</v>
+      </c>
+      <c r="N134" t="s">
+        <v>210</v>
+      </c>
+      <c r="O134" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>8</v>
+      </c>
+      <c r="B135" t="s">
+        <v>47</v>
+      </c>
+      <c r="C135" t="s">
+        <v>46</v>
+      </c>
+      <c r="D135">
+        <v>126</v>
+      </c>
+      <c r="E135">
+        <v>0.69</v>
+      </c>
+      <c r="F135">
+        <v>-0.05</v>
+      </c>
+      <c r="J135" t="s">
+        <v>16</v>
+      </c>
+      <c r="K135" t="s">
+        <v>147</v>
+      </c>
+      <c r="L135" t="s">
+        <v>90</v>
+      </c>
+      <c r="M135" t="s">
+        <v>215</v>
+      </c>
+      <c r="N135" t="s">
+        <v>210</v>
+      </c>
+      <c r="O135" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>8</v>
+      </c>
+      <c r="B136" t="s">
+        <v>47</v>
+      </c>
+      <c r="C136" t="s">
+        <v>46</v>
+      </c>
+      <c r="D136">
+        <v>119</v>
+      </c>
+      <c r="E136">
+        <v>0.72</v>
+      </c>
+      <c r="F136">
+        <v>-0.12</v>
+      </c>
+      <c r="J136" t="s">
+        <v>16</v>
+      </c>
+      <c r="K136" t="s">
+        <v>147</v>
+      </c>
+      <c r="L136" t="s">
+        <v>90</v>
+      </c>
+      <c r="M136" t="s">
+        <v>215</v>
+      </c>
+      <c r="N136" t="s">
+        <v>210</v>
+      </c>
+      <c r="O136" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>160</v>
+      </c>
+      <c r="B137" t="s">
+        <v>159</v>
+      </c>
+      <c r="C137" t="s">
+        <v>213</v>
+      </c>
+      <c r="D137">
+        <v>157</v>
+      </c>
+      <c r="E137">
+        <v>0.22</v>
+      </c>
+      <c r="F137">
+        <v>-0.42</v>
+      </c>
+      <c r="J137" t="s">
+        <v>16</v>
+      </c>
+      <c r="K137" t="s">
+        <v>147</v>
+      </c>
+      <c r="L137" t="s">
+        <v>90</v>
+      </c>
+      <c r="M137" t="s">
+        <v>211</v>
+      </c>
+      <c r="N137" t="s">
+        <v>210</v>
+      </c>
+      <c r="O137" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>160</v>
+      </c>
+      <c r="B138" t="s">
+        <v>159</v>
+      </c>
+      <c r="C138" t="s">
+        <v>213</v>
+      </c>
+      <c r="D138">
+        <v>135</v>
+      </c>
+      <c r="E138">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F138">
+        <v>-0.3</v>
+      </c>
+      <c r="J138" t="s">
+        <v>16</v>
+      </c>
+      <c r="K138" t="s">
+        <v>147</v>
+      </c>
+      <c r="L138" t="s">
+        <v>90</v>
+      </c>
+      <c r="M138" t="s">
+        <v>211</v>
+      </c>
+      <c r="N138" t="s">
+        <v>210</v>
+      </c>
+      <c r="O138" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>160</v>
+      </c>
+      <c r="B139" t="s">
+        <v>159</v>
+      </c>
+      <c r="C139" t="s">
+        <v>213</v>
+      </c>
+      <c r="D139">
+        <v>173</v>
+      </c>
+      <c r="E139">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F139">
+        <v>-1.0900000000000001</v>
+      </c>
+      <c r="J139" t="s">
+        <v>16</v>
+      </c>
+      <c r="K139" t="s">
+        <v>147</v>
+      </c>
+      <c r="L139" t="s">
+        <v>90</v>
+      </c>
+      <c r="M139" t="s">
+        <v>214</v>
+      </c>
+      <c r="N139" t="s">
+        <v>210</v>
+      </c>
+      <c r="O139" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>160</v>
+      </c>
+      <c r="B140" t="s">
+        <v>159</v>
+      </c>
+      <c r="C140" t="s">
+        <v>213</v>
+      </c>
+      <c r="D140">
+        <v>135</v>
+      </c>
+      <c r="E140">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F140">
+        <v>-0.3</v>
+      </c>
+      <c r="J140" t="s">
+        <v>16</v>
+      </c>
+      <c r="K140" t="s">
+        <v>147</v>
+      </c>
+      <c r="L140" t="s">
+        <v>90</v>
+      </c>
+      <c r="M140" t="s">
+        <v>214</v>
+      </c>
+      <c r="N140" t="s">
+        <v>210</v>
+      </c>
+      <c r="O140" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>160</v>
+      </c>
+      <c r="B141" t="s">
+        <v>159</v>
+      </c>
+      <c r="C141" t="s">
+        <v>213</v>
+      </c>
+      <c r="D141">
+        <v>135</v>
+      </c>
+      <c r="E141">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F141">
+        <v>-0.3</v>
+      </c>
+      <c r="J141" t="s">
+        <v>16</v>
+      </c>
+      <c r="K141" t="s">
+        <v>147</v>
+      </c>
+      <c r="L141" t="s">
+        <v>90</v>
+      </c>
+      <c r="M141" t="s">
+        <v>215</v>
+      </c>
+      <c r="N141" t="s">
+        <v>210</v>
+      </c>
+      <c r="O141" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>44</v>
+      </c>
+      <c r="B142" t="s">
+        <v>76</v>
+      </c>
+      <c r="C142" t="s">
+        <v>79</v>
+      </c>
+      <c r="D142">
+        <v>145</v>
+      </c>
+      <c r="E142">
+        <v>1.39</v>
+      </c>
+      <c r="G142">
+        <v>17</v>
+      </c>
+      <c r="H142">
+        <v>10</v>
+      </c>
+      <c r="J142" t="s">
+        <v>16</v>
+      </c>
+      <c r="K142" t="s">
+        <v>147</v>
+      </c>
+      <c r="L142" t="s">
+        <v>90</v>
+      </c>
+      <c r="M142" t="s">
+        <v>218</v>
+      </c>
+      <c r="N142" t="s">
+        <v>216</v>
+      </c>
+      <c r="O142" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>19</v>
+      </c>
+      <c r="B143" t="s">
+        <v>17</v>
+      </c>
+      <c r="C143" t="s">
+        <v>39</v>
+      </c>
+      <c r="D143">
+        <v>274</v>
+      </c>
+      <c r="E143">
+        <v>0.78</v>
+      </c>
+      <c r="F143">
+        <v>-0.24</v>
+      </c>
+      <c r="G143">
+        <v>76</v>
+      </c>
+      <c r="H143">
+        <v>9</v>
+      </c>
+      <c r="I143">
+        <v>312</v>
+      </c>
+      <c r="J143" t="s">
+        <v>16</v>
+      </c>
+      <c r="K143" t="s">
+        <v>11</v>
+      </c>
+      <c r="L143" t="s">
+        <v>90</v>
+      </c>
+      <c r="M143" t="s">
+        <v>219</v>
+      </c>
+      <c r="N143" t="s">
+        <v>217</v>
+      </c>
+      <c r="O143" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>224</v>
+      </c>
+      <c r="B144" t="s">
+        <v>225</v>
+      </c>
+      <c r="C144" t="s">
+        <v>226</v>
+      </c>
+      <c r="D144">
+        <v>198.94</v>
+      </c>
+      <c r="E144">
+        <v>0.25</v>
+      </c>
+      <c r="F144">
+        <v>-0.17199999999999999</v>
+      </c>
+      <c r="G144">
+        <v>72</v>
+      </c>
+      <c r="H144">
+        <v>16</v>
+      </c>
+      <c r="I144">
+        <v>225</v>
+      </c>
+      <c r="J144" t="s">
+        <v>16</v>
+      </c>
+      <c r="K144" t="s">
+        <v>147</v>
+      </c>
+      <c r="L144" t="s">
+        <v>90</v>
+      </c>
+      <c r="M144" t="s">
+        <v>223</v>
+      </c>
+      <c r="N144" t="s">
+        <v>220</v>
+      </c>
+      <c r="O144" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>44</v>
+      </c>
+      <c r="B145" t="s">
+        <v>76</v>
+      </c>
+      <c r="C145" t="s">
+        <v>98</v>
+      </c>
+      <c r="D145">
+        <v>44.22</v>
+      </c>
+      <c r="E145">
+        <v>0.26</v>
+      </c>
+      <c r="F145">
+        <v>1.33</v>
+      </c>
+      <c r="H145">
+        <v>6</v>
+      </c>
+      <c r="I145">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="J145" t="s">
+        <v>36</v>
+      </c>
+      <c r="K145" t="s">
+        <v>147</v>
+      </c>
+      <c r="L145" t="s">
+        <v>90</v>
+      </c>
+      <c r="M145" t="s">
+        <v>228</v>
+      </c>
+      <c r="N145" t="s">
+        <v>154</v>
+      </c>
+      <c r="O145" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>8</v>
+      </c>
+      <c r="B146" t="s">
+        <v>47</v>
+      </c>
+      <c r="C146" t="s">
+        <v>46</v>
+      </c>
+      <c r="D146">
+        <v>17</v>
+      </c>
+      <c r="E146">
+        <v>0.9</v>
+      </c>
+      <c r="F146">
+        <v>0.2</v>
+      </c>
+      <c r="G146">
+        <v>263</v>
+      </c>
+      <c r="H146">
+        <v>34</v>
+      </c>
+      <c r="I146">
+        <v>21</v>
+      </c>
+      <c r="J146" t="s">
+        <v>36</v>
+      </c>
+      <c r="K146" t="s">
+        <v>11</v>
+      </c>
+      <c r="L146" t="s">
+        <v>90</v>
+      </c>
+      <c r="M146" t="s">
+        <v>230</v>
+      </c>
+      <c r="N146" t="s">
+        <v>229</v>
+      </c>
+      <c r="O146" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>125</v>
+      </c>
+      <c r="B147" t="s">
+        <v>130</v>
+      </c>
+      <c r="C147" t="s">
+        <v>232</v>
+      </c>
+      <c r="D147">
+        <v>46.8</v>
+      </c>
+      <c r="E147">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="F147">
+        <v>0.123</v>
+      </c>
+      <c r="H147">
+        <v>15</v>
+      </c>
+      <c r="I147">
+        <v>46.7</v>
+      </c>
+      <c r="J147" t="s">
+        <v>36</v>
+      </c>
+      <c r="K147" t="s">
+        <v>147</v>
+      </c>
+      <c r="L147" t="s">
+        <v>90</v>
+      </c>
+      <c r="M147" t="s">
+        <v>230</v>
+      </c>
+      <c r="N147" t="s">
+        <v>231</v>
+      </c>
+      <c r="O147" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>125</v>
+      </c>
+      <c r="B148" t="s">
+        <v>135</v>
+      </c>
+      <c r="C148" t="s">
+        <v>178</v>
+      </c>
+      <c r="D148">
+        <v>42.9</v>
+      </c>
+      <c r="E148">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="F148">
+        <v>-0.75</v>
+      </c>
+      <c r="H148">
+        <v>14</v>
+      </c>
+      <c r="I148">
+        <v>47.3</v>
+      </c>
+      <c r="J148" t="s">
+        <v>36</v>
+      </c>
+      <c r="K148" t="s">
+        <v>147</v>
+      </c>
+      <c r="L148" t="s">
+        <v>90</v>
+      </c>
+      <c r="M148" t="s">
+        <v>230</v>
+      </c>
+      <c r="N148" t="s">
+        <v>231</v>
+      </c>
+      <c r="O148" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>125</v>
+      </c>
+      <c r="B149" t="s">
+        <v>130</v>
+      </c>
+      <c r="C149" t="s">
+        <v>132</v>
+      </c>
+      <c r="D149">
+        <v>25.6</v>
+      </c>
+      <c r="E149">
+        <v>0.442</v>
+      </c>
+      <c r="F149">
+        <v>-0.75600000000000001</v>
+      </c>
+      <c r="I149">
+        <v>30.8</v>
+      </c>
+      <c r="J149" t="s">
+        <v>36</v>
+      </c>
+      <c r="K149" t="s">
+        <v>147</v>
+      </c>
+      <c r="L149" t="s">
+        <v>90</v>
+      </c>
+      <c r="M149" t="s">
+        <v>230</v>
+      </c>
+      <c r="N149" t="s">
+        <v>231</v>
+      </c>
+      <c r="O149" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>125</v>
+      </c>
+      <c r="B150" t="s">
+        <v>135</v>
+      </c>
+      <c r="C150" t="s">
+        <v>177</v>
+      </c>
+      <c r="D150">
+        <v>21.7</v>
+      </c>
+      <c r="E150">
+        <v>1.653</v>
+      </c>
+      <c r="F150">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="I150">
+        <v>27.8</v>
+      </c>
+      <c r="J150" t="s">
+        <v>36</v>
+      </c>
+      <c r="K150" t="s">
+        <v>147</v>
+      </c>
+      <c r="L150" t="s">
+        <v>90</v>
+      </c>
+      <c r="M150" t="s">
+        <v>230</v>
+      </c>
+      <c r="N150" t="s">
+        <v>231</v>
+      </c>
+      <c r="O150" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>44</v>
+      </c>
+      <c r="B151" t="s">
+        <v>43</v>
+      </c>
+      <c r="C151" t="s">
+        <v>201</v>
+      </c>
+      <c r="D151">
+        <v>282.13</v>
+      </c>
+      <c r="E151">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="F151">
+        <v>-0.19800000000000001</v>
+      </c>
+      <c r="G151">
+        <v>230</v>
+      </c>
+      <c r="H151">
+        <v>16</v>
+      </c>
+      <c r="J151" t="s">
+        <v>16</v>
+      </c>
+      <c r="K151" t="s">
+        <v>11</v>
+      </c>
+      <c r="L151" t="s">
+        <v>90</v>
+      </c>
+      <c r="M151" t="s">
+        <v>99</v>
+      </c>
+      <c r="N151" t="s">
+        <v>233</v>
+      </c>
+      <c r="O151" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>44</v>
+      </c>
+      <c r="B152" t="s">
+        <v>43</v>
+      </c>
+      <c r="C152" t="s">
+        <v>201</v>
+      </c>
+      <c r="D152">
+        <v>274.60000000000002</v>
+      </c>
+      <c r="E152">
+        <v>0.45</v>
+      </c>
+      <c r="F152">
+        <v>-0.21199999999999999</v>
+      </c>
+      <c r="G152">
+        <v>145</v>
+      </c>
+      <c r="H152">
+        <v>12</v>
+      </c>
+      <c r="J152" t="s">
+        <v>16</v>
+      </c>
+      <c r="K152" t="s">
+        <v>11</v>
+      </c>
+      <c r="L152" t="s">
+        <v>90</v>
+      </c>
+      <c r="M152" t="s">
+        <v>234</v>
+      </c>
+      <c r="N152" t="s">
+        <v>233</v>
+      </c>
+      <c r="O152" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>44</v>
+      </c>
+      <c r="B153" t="s">
+        <v>43</v>
+      </c>
+      <c r="C153" t="s">
+        <v>73</v>
+      </c>
+      <c r="D153">
+        <v>537.01</v>
+      </c>
+      <c r="E153">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="F153">
+        <v>-0.245</v>
+      </c>
+      <c r="G153">
+        <v>201</v>
+      </c>
+      <c r="H153">
+        <v>33</v>
+      </c>
+      <c r="J153" t="s">
+        <v>16</v>
+      </c>
+      <c r="K153" t="s">
+        <v>11</v>
+      </c>
+      <c r="L153" t="s">
+        <v>90</v>
+      </c>
+      <c r="M153" t="s">
+        <v>99</v>
+      </c>
+      <c r="N153" t="s">
+        <v>233</v>
+      </c>
+      <c r="O153" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>44</v>
+      </c>
+      <c r="B154" t="s">
+        <v>43</v>
+      </c>
+      <c r="C154" t="s">
+        <v>73</v>
+      </c>
+      <c r="D154">
+        <v>582.37</v>
+      </c>
+      <c r="E154">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="F154">
+        <v>-0.21199999999999999</v>
+      </c>
+      <c r="G154">
+        <v>101</v>
+      </c>
+      <c r="H154">
+        <v>24</v>
+      </c>
+      <c r="J154" t="s">
+        <v>16</v>
+      </c>
+      <c r="K154" t="s">
+        <v>11</v>
+      </c>
+      <c r="L154" t="s">
+        <v>90</v>
+      </c>
+      <c r="M154" t="s">
+        <v>234</v>
+      </c>
+      <c r="N154" t="s">
+        <v>233</v>
+      </c>
+      <c r="O154" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>44</v>
+      </c>
+      <c r="B155" t="s">
+        <v>76</v>
+      </c>
+      <c r="C155" t="s">
+        <v>98</v>
+      </c>
+      <c r="D155">
+        <v>399.01</v>
+      </c>
+      <c r="E155">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="F155">
+        <v>-0.16900000000000001</v>
+      </c>
+      <c r="G155">
+        <v>94</v>
+      </c>
+      <c r="H155">
+        <v>24</v>
+      </c>
+      <c r="J155" t="s">
+        <v>16</v>
+      </c>
+      <c r="K155" t="s">
+        <v>11</v>
+      </c>
+      <c r="L155" t="s">
+        <v>90</v>
+      </c>
+      <c r="M155" t="s">
+        <v>99</v>
+      </c>
+      <c r="N155" t="s">
+        <v>233</v>
+      </c>
+      <c r="O155" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>44</v>
+      </c>
+      <c r="B156" t="s">
+        <v>76</v>
+      </c>
+      <c r="C156" t="s">
+        <v>98</v>
+      </c>
+      <c r="D156">
+        <v>371.19</v>
+      </c>
+      <c r="E156">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="F156">
+        <v>-0.14699999999999999</v>
+      </c>
+      <c r="G156">
+        <v>138</v>
+      </c>
+      <c r="H156">
+        <v>14</v>
+      </c>
+      <c r="J156" t="s">
+        <v>16</v>
+      </c>
+      <c r="K156" t="s">
+        <v>11</v>
+      </c>
+      <c r="L156" t="s">
+        <v>90</v>
+      </c>
+      <c r="M156" t="s">
+        <v>234</v>
+      </c>
+      <c r="N156" t="s">
+        <v>233</v>
+      </c>
+      <c r="O156" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>19</v>
+      </c>
+      <c r="B157" t="s">
+        <v>17</v>
+      </c>
+      <c r="C157" t="s">
+        <v>153</v>
+      </c>
+      <c r="D157">
+        <v>296</v>
+      </c>
+      <c r="E157">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="F157">
+        <v>-1.349</v>
+      </c>
+      <c r="G157">
+        <v>7</v>
+      </c>
+      <c r="I157">
+        <v>255</v>
+      </c>
+      <c r="J157" t="s">
+        <v>16</v>
+      </c>
+      <c r="K157" t="s">
+        <v>11</v>
+      </c>
+      <c r="L157" t="s">
+        <v>90</v>
+      </c>
+      <c r="M157" t="s">
+        <v>239</v>
+      </c>
+      <c r="N157" t="s">
+        <v>235</v>
+      </c>
+      <c r="O157" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>238</v>
+      </c>
+      <c r="B158" t="s">
+        <v>237</v>
+      </c>
+      <c r="C158" t="s">
+        <v>236</v>
+      </c>
+      <c r="D158">
+        <v>308</v>
+      </c>
+      <c r="E158">
+        <v>0.216</v>
+      </c>
+      <c r="F158">
+        <v>-0.4</v>
+      </c>
+      <c r="G158">
+        <v>7</v>
+      </c>
+      <c r="I158">
+        <v>332</v>
+      </c>
+      <c r="J158" t="s">
+        <v>16</v>
+      </c>
+      <c r="K158" t="s">
+        <v>11</v>
+      </c>
+      <c r="L158" t="s">
+        <v>90</v>
+      </c>
+      <c r="M158" t="s">
+        <v>239</v>
+      </c>
+      <c r="N158" t="s">
+        <v>235</v>
+      </c>
+      <c r="O158" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>8</v>
+      </c>
+      <c r="B159" t="s">
+        <v>108</v>
+      </c>
+      <c r="C159" t="s">
+        <v>114</v>
+      </c>
+      <c r="D159">
+        <v>170</v>
+      </c>
+      <c r="E159">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="F159">
+        <v>-0.32900000000000001</v>
+      </c>
+      <c r="G159">
+        <v>4</v>
+      </c>
+      <c r="I159">
+        <v>200</v>
+      </c>
+      <c r="J159" t="s">
+        <v>16</v>
+      </c>
+      <c r="K159" t="s">
+        <v>11</v>
+      </c>
+      <c r="L159" t="s">
+        <v>90</v>
+      </c>
+      <c r="M159" t="s">
+        <v>239</v>
+      </c>
+      <c r="N159" t="s">
+        <v>235</v>
+      </c>
+      <c r="O159" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>8</v>
+      </c>
+      <c r="B160" t="s">
+        <v>47</v>
+      </c>
+      <c r="C160" t="s">
+        <v>46</v>
+      </c>
+      <c r="D160">
+        <v>256</v>
+      </c>
+      <c r="E160">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="F160">
+        <v>-0.64300000000000002</v>
+      </c>
+      <c r="G160">
+        <v>6</v>
+      </c>
+      <c r="I160">
+        <v>210</v>
+      </c>
+      <c r="J160" t="s">
+        <v>16</v>
+      </c>
+      <c r="K160" t="s">
+        <v>11</v>
+      </c>
+      <c r="L160" t="s">
+        <v>90</v>
+      </c>
+      <c r="M160" t="s">
+        <v>239</v>
+      </c>
+      <c r="N160" t="s">
+        <v>235</v>
+      </c>
+      <c r="O160" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>125</v>
+      </c>
+      <c r="B161" t="s">
+        <v>249</v>
+      </c>
+      <c r="C161" t="s">
+        <v>242</v>
+      </c>
+      <c r="D161">
+        <v>263</v>
+      </c>
+      <c r="E161">
+        <v>0.91</v>
+      </c>
+      <c r="F161">
+        <v>-6.5000000000000002E-2</v>
+      </c>
+      <c r="G161">
+        <v>34</v>
+      </c>
+      <c r="H161">
+        <v>3</v>
+      </c>
+      <c r="I161">
+        <v>287</v>
+      </c>
+      <c r="J161" t="s">
+        <v>16</v>
+      </c>
+      <c r="K161" t="s">
+        <v>11</v>
+      </c>
+      <c r="L161" t="s">
+        <v>90</v>
+      </c>
+      <c r="M161" t="s">
+        <v>240</v>
+      </c>
+      <c r="N161" t="s">
+        <v>241</v>
+      </c>
+      <c r="O161" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>125</v>
+      </c>
+      <c r="B162" t="s">
+        <v>128</v>
+      </c>
+      <c r="C162" t="s">
+        <v>243</v>
+      </c>
+      <c r="D162">
+        <v>402</v>
+      </c>
+      <c r="E162">
+        <v>0.59</v>
+      </c>
+      <c r="F162">
+        <v>-6.5000000000000002E-2</v>
+      </c>
+      <c r="G162">
+        <v>47</v>
+      </c>
+      <c r="H162">
+        <v>12</v>
+      </c>
+      <c r="I162">
+        <v>433</v>
+      </c>
+      <c r="J162" t="s">
+        <v>16</v>
+      </c>
+      <c r="K162" t="s">
+        <v>11</v>
+      </c>
+      <c r="L162" t="s">
+        <v>90</v>
+      </c>
+      <c r="M162" t="s">
+        <v>240</v>
+      </c>
+      <c r="N162" t="s">
+        <v>241</v>
+      </c>
+      <c r="O162" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>125</v>
+      </c>
+      <c r="B163" t="s">
+        <v>130</v>
+      </c>
+      <c r="C163" t="s">
+        <v>244</v>
+      </c>
+      <c r="D163">
+        <v>372</v>
+      </c>
+      <c r="E163">
+        <v>0.71</v>
+      </c>
+      <c r="F163">
+        <v>-5.8000000000000003E-2</v>
+      </c>
+      <c r="G163">
+        <v>83</v>
+      </c>
+      <c r="H163">
+        <v>11</v>
+      </c>
+      <c r="I163">
+        <v>465</v>
+      </c>
+      <c r="J163" t="s">
+        <v>16</v>
+      </c>
+      <c r="K163" t="s">
+        <v>11</v>
+      </c>
+      <c r="L163" t="s">
+        <v>90</v>
+      </c>
+      <c r="M163" t="s">
+        <v>240</v>
+      </c>
+      <c r="N163" t="s">
+        <v>241</v>
+      </c>
+      <c r="O163" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>125</v>
+      </c>
+      <c r="B164" t="s">
+        <v>130</v>
+      </c>
+      <c r="C164" t="s">
+        <v>245</v>
+      </c>
+      <c r="D164">
+        <v>457</v>
+      </c>
+      <c r="E164">
+        <v>0.34</v>
+      </c>
+      <c r="F164">
+        <v>-9.7000000000000003E-2</v>
+      </c>
+      <c r="G164">
+        <v>80</v>
+      </c>
+      <c r="H164">
+        <v>11</v>
+      </c>
+      <c r="I164">
+        <v>501</v>
+      </c>
+      <c r="J164" t="s">
+        <v>16</v>
+      </c>
+      <c r="K164" t="s">
+        <v>11</v>
+      </c>
+      <c r="L164" t="s">
+        <v>90</v>
+      </c>
+      <c r="M164" t="s">
+        <v>240</v>
+      </c>
+      <c r="N164" t="s">
+        <v>241</v>
+      </c>
+      <c r="O164" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>125</v>
+      </c>
+      <c r="B165" t="s">
+        <v>130</v>
+      </c>
+      <c r="C165" t="s">
+        <v>176</v>
+      </c>
+      <c r="D165">
+        <v>218</v>
+      </c>
+      <c r="E165">
+        <v>0.95</v>
+      </c>
+      <c r="F165">
+        <v>-7.4999999999999997E-2</v>
+      </c>
+      <c r="G165">
+        <v>347</v>
+      </c>
+      <c r="H165">
+        <v>9</v>
+      </c>
+      <c r="I165">
+        <v>265</v>
+      </c>
+      <c r="J165" t="s">
+        <v>16</v>
+      </c>
+      <c r="K165" t="s">
+        <v>11</v>
+      </c>
+      <c r="L165" t="s">
+        <v>90</v>
+      </c>
+      <c r="M165" t="s">
+        <v>240</v>
+      </c>
+      <c r="N165" t="s">
+        <v>241</v>
+      </c>
+      <c r="O165" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>125</v>
+      </c>
+      <c r="B166" t="s">
+        <v>133</v>
+      </c>
+      <c r="C166" t="s">
+        <v>134</v>
+      </c>
+      <c r="D166">
+        <v>366</v>
+      </c>
+      <c r="E166">
+        <v>0.76</v>
+      </c>
+      <c r="F166">
+        <v>-5.5E-2</v>
+      </c>
+      <c r="G166">
+        <v>64</v>
+      </c>
+      <c r="H166">
+        <v>6</v>
+      </c>
+      <c r="I166">
+        <v>430</v>
+      </c>
+      <c r="J166" t="s">
+        <v>16</v>
+      </c>
+      <c r="K166" t="s">
+        <v>11</v>
+      </c>
+      <c r="L166" t="s">
+        <v>90</v>
+      </c>
+      <c r="M166" t="s">
+        <v>240</v>
+      </c>
+      <c r="N166" t="s">
+        <v>241</v>
+      </c>
+      <c r="O166" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>125</v>
+      </c>
+      <c r="B167" t="s">
+        <v>135</v>
+      </c>
+      <c r="C167" t="s">
+        <v>246</v>
+      </c>
+      <c r="D167">
+        <v>339</v>
+      </c>
+      <c r="E167">
+        <v>0.66</v>
+      </c>
+      <c r="F167">
+        <v>-6.9000000000000006E-2</v>
+      </c>
+      <c r="G167">
+        <v>53</v>
+      </c>
+      <c r="H167">
+        <v>14</v>
+      </c>
+      <c r="I167">
+        <v>410</v>
+      </c>
+      <c r="J167" t="s">
+        <v>16</v>
+      </c>
+      <c r="K167" t="s">
+        <v>11</v>
+      </c>
+      <c r="L167" t="s">
+        <v>90</v>
+      </c>
+      <c r="M167" t="s">
+        <v>240</v>
+      </c>
+      <c r="N167" t="s">
+        <v>241</v>
+      </c>
+      <c r="O167" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>125</v>
+      </c>
+      <c r="B168" t="s">
+        <v>135</v>
+      </c>
+      <c r="C168" t="s">
+        <v>247</v>
+      </c>
+      <c r="D168">
+        <v>281</v>
+      </c>
+      <c r="E168">
+        <v>0.88</v>
+      </c>
+      <c r="F168">
+        <v>-6.2E-2</v>
+      </c>
+      <c r="G168">
+        <v>80</v>
+      </c>
+      <c r="H168">
+        <v>12</v>
+      </c>
+      <c r="I168">
+        <v>339</v>
+      </c>
+      <c r="J168" t="s">
+        <v>16</v>
+      </c>
+      <c r="K168" t="s">
+        <v>11</v>
+      </c>
+      <c r="L168" t="s">
+        <v>90</v>
+      </c>
+      <c r="M168" t="s">
+        <v>240</v>
+      </c>
+      <c r="N168" t="s">
+        <v>241</v>
+      </c>
+      <c r="O168" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>125</v>
+      </c>
+      <c r="B169" t="s">
+        <v>135</v>
+      </c>
+      <c r="C169" t="s">
+        <v>248</v>
+      </c>
+      <c r="D169">
+        <v>310</v>
+      </c>
+      <c r="E169">
+        <v>1.41</v>
+      </c>
+      <c r="F169">
+        <v>-3.5000000000000003E-2</v>
+      </c>
+      <c r="G169">
+        <v>31</v>
+      </c>
+      <c r="H169">
+        <v>6</v>
+      </c>
+      <c r="I169">
+        <v>366</v>
+      </c>
+      <c r="J169" t="s">
+        <v>16</v>
+      </c>
+      <c r="K169" t="s">
+        <v>11</v>
+      </c>
+      <c r="L169" t="s">
+        <v>90</v>
+      </c>
+      <c r="M169" t="s">
+        <v>240</v>
+      </c>
+      <c r="N169" t="s">
+        <v>241</v>
+      </c>
+      <c r="O169" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>125</v>
+      </c>
+      <c r="B170" t="s">
+        <v>135</v>
+      </c>
+      <c r="C170" t="s">
+        <v>177</v>
+      </c>
+      <c r="D170">
+        <v>207</v>
+      </c>
+      <c r="E170">
+        <v>0.91</v>
+      </c>
+      <c r="F170">
+        <v>-8.3000000000000004E-2</v>
+      </c>
+      <c r="G170">
+        <v>114</v>
+      </c>
+      <c r="H170">
+        <v>6</v>
+      </c>
+      <c r="I170">
+        <v>252</v>
+      </c>
+      <c r="J170" t="s">
+        <v>16</v>
+      </c>
+      <c r="K170" t="s">
+        <v>11</v>
+      </c>
+      <c r="L170" t="s">
+        <v>90</v>
+      </c>
+      <c r="M170" t="s">
+        <v>240</v>
+      </c>
+      <c r="N170" t="s">
+        <v>241</v>
+      </c>
+      <c r="O170" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>125</v>
+      </c>
+      <c r="B171" t="s">
+        <v>135</v>
+      </c>
+      <c r="C171" t="s">
+        <v>178</v>
+      </c>
+      <c r="D171">
+        <v>376</v>
+      </c>
+      <c r="E171">
+        <v>0.66</v>
+      </c>
+      <c r="F171">
+        <v>-6.2E-2</v>
+      </c>
+      <c r="G171">
+        <v>57</v>
+      </c>
+      <c r="H171">
+        <v>6</v>
+      </c>
+      <c r="I171">
+        <v>435</v>
+      </c>
+      <c r="J171" t="s">
+        <v>16</v>
+      </c>
+      <c r="K171" t="s">
+        <v>11</v>
+      </c>
+      <c r="L171" t="s">
+        <v>90</v>
+      </c>
+      <c r="M171" t="s">
+        <v>240</v>
+      </c>
+      <c r="N171" t="s">
+        <v>241</v>
+      </c>
+      <c r="O171" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>125</v>
+      </c>
+      <c r="B172" t="s">
+        <v>135</v>
+      </c>
+      <c r="C172" t="s">
+        <v>140</v>
+      </c>
+      <c r="D172">
+        <v>252</v>
+      </c>
+      <c r="E172">
+        <v>1.03</v>
+      </c>
+      <c r="F172">
+        <v>-0.06</v>
+      </c>
+      <c r="G172">
+        <v>116</v>
+      </c>
+      <c r="H172">
+        <v>8</v>
+      </c>
+      <c r="I172">
+        <v>315</v>
+      </c>
+      <c r="J172" t="s">
+        <v>16</v>
+      </c>
+      <c r="K172" t="s">
+        <v>11</v>
+      </c>
+      <c r="L172" t="s">
+        <v>90</v>
+      </c>
+      <c r="M172" t="s">
+        <v>240</v>
+      </c>
+      <c r="N172" t="s">
+        <v>241</v>
+      </c>
+      <c r="O172" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -5220,14 +9091,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="86.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5351,6 +9223,14 @@
         <v>29</v>
       </c>
     </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B16" t="s">
+        <v>222</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
